--- a/output/frequencies/women/LAO_women_2012.xlsx
+++ b/output/frequencies/women/LAO_women_2012.xlsx
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="C17" t="n">
-        <v>117.2</v>
+        <v>140.4</v>
       </c>
     </row>
     <row r="18">
@@ -683,7 +683,7 @@
         <v>55</v>
       </c>
       <c r="C19" t="n">
-        <v>2393.8</v>
+        <v>2401.3</v>
       </c>
     </row>
     <row r="20">
@@ -693,23 +693,23 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="C20" t="n">
-        <v>1211.3</v>
+        <v>1212.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Other, DK, Missing</t>
+          <t>Other, Missing, DK</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>39.8</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>53.2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="C17" t="n">
-        <v>117.2</v>
+        <v>140.4</v>
       </c>
     </row>
     <row r="18">
@@ -1026,7 +1026,7 @@
         <v>27.7</v>
       </c>
       <c r="C19" t="n">
-        <v>2393.8</v>
+        <v>2401.3</v>
       </c>
     </row>
     <row r="20">
@@ -1036,23 +1036,23 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="C20" t="n">
-        <v>1211.3</v>
+        <v>1212.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Other, DK, Missing</t>
+          <t>Other, Missing, DK</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>24.7</v>
+        <v>28</v>
       </c>
       <c r="C21" t="n">
-        <v>53.2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -1340,10 +1340,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>14</v>
+        <v>19.1</v>
       </c>
       <c r="C17" t="n">
-        <v>117.2</v>
+        <v>140.4</v>
       </c>
     </row>
     <row r="18">
@@ -1369,7 +1369,7 @@
         <v>51.8</v>
       </c>
       <c r="C19" t="n">
-        <v>2393.8</v>
+        <v>2401.3</v>
       </c>
     </row>
     <row r="20">
@@ -1379,23 +1379,23 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="C20" t="n">
-        <v>1211.3</v>
+        <v>1212.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Other, DK, Missing</t>
+          <t>Other, Missing, DK</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>50.4</v>
+        <v>63</v>
       </c>
       <c r="C21" t="n">
-        <v>53.2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C17" t="n">
-        <v>117.2</v>
+        <v>140.4</v>
       </c>
     </row>
     <row r="18">
@@ -1712,7 +1712,7 @@
         <v>5.8</v>
       </c>
       <c r="C19" t="n">
-        <v>2393.8</v>
+        <v>2401.3</v>
       </c>
     </row>
     <row r="20">
@@ -1725,20 +1725,20 @@
         <v>0.8</v>
       </c>
       <c r="C20" t="n">
-        <v>1211.3</v>
+        <v>1212.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Other, DK, Missing</t>
+          <t>Other, Missing, DK</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.5</v>
+        <v>10.6</v>
       </c>
       <c r="C21" t="n">
-        <v>53.2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -2026,10 +2026,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>12.5</v>
+        <v>18.3</v>
       </c>
       <c r="C17" t="n">
-        <v>117.2</v>
+        <v>140.4</v>
       </c>
     </row>
     <row r="18">
@@ -2052,10 +2052,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.7</v>
+        <v>54.6</v>
       </c>
       <c r="C19" t="n">
-        <v>2393.8</v>
+        <v>2401.3</v>
       </c>
     </row>
     <row r="20">
@@ -2065,23 +2065,23 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="C20" t="n">
-        <v>1211.3</v>
+        <v>1212.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Other, DK, Missing</t>
+          <t>Other, Missing, DK</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>52.3</v>
+        <v>63</v>
       </c>
       <c r="C21" t="n">
-        <v>53.2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="C17" t="n">
-        <v>117.2</v>
+        <v>140.4</v>
       </c>
     </row>
     <row r="18">
@@ -2398,7 +2398,7 @@
         <v>13.7</v>
       </c>
       <c r="C19" t="n">
-        <v>2393.8</v>
+        <v>2401.3</v>
       </c>
     </row>
     <row r="20">
@@ -2411,20 +2411,20 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>1211.3</v>
+        <v>1212.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Other, DK, Missing</t>
+          <t>Other, Missing, DK</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>10</v>
+        <v>12.8</v>
       </c>
       <c r="C21" t="n">
-        <v>53.2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>55.7</v>
+        <v>54.6</v>
       </c>
       <c r="C17" t="n">
-        <v>117.2</v>
+        <v>140.4</v>
       </c>
     </row>
     <row r="18">
@@ -2738,10 +2738,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="C19" t="n">
-        <v>2393.8</v>
+        <v>2401.3</v>
       </c>
     </row>
     <row r="20">
@@ -2751,23 +2751,23 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>33.3</v>
+        <v>33.7</v>
       </c>
       <c r="C20" t="n">
-        <v>1211.3</v>
+        <v>1212.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Other, DK, Missing</t>
+          <t>Other, Missing, DK</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>62.2</v>
+        <v>68.7</v>
       </c>
       <c r="C21" t="n">
-        <v>53.2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>17</v>
+        <v>23.1</v>
       </c>
       <c r="C17" t="n">
-        <v>117.2</v>
+        <v>140.4</v>
       </c>
     </row>
     <row r="18">
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>67.59999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="C19" t="n">
-        <v>2393.8</v>
+        <v>2401.3</v>
       </c>
     </row>
     <row r="20">
@@ -3094,23 +3094,23 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="C20" t="n">
-        <v>1211.3</v>
+        <v>1212.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Other, DK, Missing</t>
+          <t>Other, Missing, DK</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>63.3</v>
+        <v>77.7</v>
       </c>
       <c r="C21" t="n">
-        <v>53.2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">

--- a/output/frequencies/women/LAO_women_2012.xlsx
+++ b/output/frequencies/women/LAO_women_2012.xlsx
@@ -702,7 +702,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Other, Missing, DK</t>
+          <t>Other, DK, Missing</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1045,7 +1045,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Other, Missing, DK</t>
+          <t>Other, DK, Missing</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1388,7 +1388,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Other, Missing, DK</t>
+          <t>Other, DK, Missing</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1731,7 +1731,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Other, Missing, DK</t>
+          <t>Other, DK, Missing</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2074,7 +2074,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Other, Missing, DK</t>
+          <t>Other, DK, Missing</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2417,7 +2417,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Other, Missing, DK</t>
+          <t>Other, DK, Missing</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2760,7 +2760,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Other, Missing, DK</t>
+          <t>Other, DK, Missing</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -3103,7 +3103,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Other, Missing, DK</t>
+          <t>Other, DK, Missing</t>
         </is>
       </c>
       <c r="B21" t="n">
